--- a/data/logintestdata.xlsx
+++ b/data/logintestdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepak\PycharmProjects\testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584B8A46-8990-40B5-9167-050097D5DC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B5875A-9DCE-4A21-BACD-D7D7CDEAC2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,16 +42,16 @@
     <t>admincase4@yourstore.com</t>
   </si>
   <si>
-    <t>deepak123</t>
-  </si>
-  <si>
     <t>anjana123</t>
   </si>
   <si>
-    <t>deepakldo123@gmail.com</t>
-  </si>
-  <si>
     <t>anjana123@gmail.com</t>
+  </si>
+  <si>
+    <t>sathiyamurthi9989@example.com</t>
+  </si>
+  <si>
+    <t>Test@123456</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,16 +459,16 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -493,9 +493,10 @@
     <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{F771E1A8-AD5C-4166-8BC5-062395768516}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
